--- a/数据整理/stocks/A股/科创板/688686-奥普特.xlsx
+++ b/数据整理/stocks/A股/科创板/688686-奥普特.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001358</t>
+          <t>005821</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>宝盈祥泰混合A</t>
+          <t>万家新机遇龙头企业灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>21.77</t>
+          <t>0.61</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.12</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>7</v>
+          <t>82.63</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -520,25 +540,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>007575</t>
+          <t>001358</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>宝盈祥泰混合C</t>
+          <t>宝盈祥泰混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>21.77</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>0.12</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>7</v>
       </c>
     </row>
@@ -548,26 +578,34 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005821</t>
+          <t>007575</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>万家新机遇龙头企业灵活配置混合</t>
+          <t>宝盈祥泰混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>82.63</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2.92</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>9</v>
+          <t>21.77</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -581,7 +619,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -602,15 +640,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -622,26 +670,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004794</t>
+          <t>506003</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>富荣福鑫灵活配置混合A</t>
+          <t>富国科创板两年定期开放混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>66.70</t>
+          <t>24.90</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4.62</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>5</v>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.30</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.0667</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -650,25 +708,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004795</t>
+          <t>004794</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>富荣福鑫灵活配置混合C</t>
+          <t>富荣福鑫灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>66.70</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>4.62</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>5</v>
       </c>
     </row>
@@ -678,26 +746,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>506003</t>
+          <t>004795</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>富国科创板两年定期开放混合</t>
+          <t>富荣福鑫灵活配置混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>94.44</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>8.30</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>2</v>
+          <t>66.70</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/科创板/688686-奥普特.xlsx
+++ b/数据整理/stocks/A股/科创板/688686-奥普特.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -781,4 +782,248 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010460</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>兴业研究精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.88</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0976</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006718</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国融融盛龙头严选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002802</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发东财大数据精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>66.65</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004223</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>金信多策略精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006719</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国融融盛龙头严选混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688686-奥普特.xlsx
+++ b/数据整理/stocks/A股/科创板/688686-奥普特.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1026,4 +1027,88 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.07</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688686-奥普特.xlsx
+++ b/数据整理/stocks/A股/科创板/688686-奥普特.xlsx
@@ -1051,12 +1051,12 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>持有市值(亿元)</t>
         </is>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688686-奥普特.xlsx
+++ b/数据整理/stocks/A股/科创板/688686-奥普特.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1035,7 +1036,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1046,17 +1047,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1066,14 +1087,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.12</v>
+          <t>506008</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>长城科创两年定开混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>76.10</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0892</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1082,14 +1125,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.07</v>
+          <t>011071</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华安悦一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>26.48</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0620</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -1098,13 +1163,513 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>001707</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>诺安高端制造股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0511</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001255</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长城改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>62.01</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0446</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001067</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华弘盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>23.07</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0396</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009232</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华安惠混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>23.35</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009634</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华安睿两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>21.46</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009635</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华安睿两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>21.46</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001380</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华弘盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>23.07</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012793</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>长城科创两年定开混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>76.10</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009233</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华安惠混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>23.35</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011072</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏华安悦一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>26.48</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>014536</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>诺安高端制造股票C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>13</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>3</v>
       </c>
       <c r="D4" t="n">
+        <v>2.07</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
         <v>0.02</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688686-奥普特.xlsx
+++ b/数据整理/stocks/A股/科创板/688686-奥普特.xlsx
@@ -6,11 +6,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,165 +454,97 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005821</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>万家新机遇龙头企业灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.61</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>82.63</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.92</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0178</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>13</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.35</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001358</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>宝盈祥泰混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2.93</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>21.77</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0.12</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0035</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>007575</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>宝盈祥泰混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>21.77</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0.12</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.07</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.02</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -622,7 +554,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +575,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -673,36 +605,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>506003</t>
+          <t>506008</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>富国科创板两年定期开放混合</t>
+          <t>长城科创两年定开混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>24.90</t>
+          <t>3.67</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.44</t>
+          <t>76.10</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>8.30</t>
+          <t>2.43</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2.0667</t>
+          <t>0.0892</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -711,36 +643,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004794</t>
+          <t>011071</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>富荣福鑫灵活配置混合A</t>
+          <t>鹏华安悦一年持有期混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>7.85</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>66.70</t>
+          <t>26.48</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.62</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0023</t>
+          <t>0.0620</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -749,36 +681,414 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>004795</t>
+          <t>001707</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>富荣福鑫灵活配置混合C</t>
+          <t>诺安高端制造股票</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>1.34</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>66.70</t>
+          <t>88.86</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.62</t>
+          <t>3.81</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0023</t>
+          <t>0.0511</t>
         </is>
       </c>
       <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001255</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长城改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>62.01</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0446</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001067</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华弘盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>23.07</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0396</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009232</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华安惠混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>23.35</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009634</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华安睿两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>21.46</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0174</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009635</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华安睿两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>21.46</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001380</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>鹏华弘盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>23.07</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012793</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>长城科创两年定开混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>76.10</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009233</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华安惠混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>23.35</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011072</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>鹏华安悦一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>26.48</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>014536</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>诺安高端制造股票C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1036,7 +1346,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1057,7 +1367,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1087,36 +1397,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>506008</t>
+          <t>506003</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>长城科创两年定开混合A</t>
+          <t>富国科创板两年定期开放混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3.67</t>
+          <t>24.90</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>76.10</t>
+          <t>94.44</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.43</t>
+          <t>8.30</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0892</t>
+          <t>2.0667</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -1125,36 +1435,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>011071</t>
+          <t>004794</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>鹏华安悦一年持有期混合A</t>
+          <t>富荣福鑫灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>7.85</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>26.48</t>
+          <t>66.70</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>4.62</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0620</t>
+          <t>0.0023</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1163,414 +1473,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001707</t>
+          <t>004795</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>诺安高端制造股票</t>
+          <t>富荣福鑫灵活配置混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.34</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>88.86</t>
+          <t>66.70</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.81</t>
+          <t>4.62</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0511</t>
+          <t>0.0023</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>001255</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>长城改革红利灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.26</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>62.01</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.54</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0446</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>001067</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>鹏华弘盛灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>5.42</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>23.07</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0.73</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0396</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
         <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>009232</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>鹏华安惠混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>3.27</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>23.35</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0.79</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0258</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>009634</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>鹏华安睿两年持有期混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2.48</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>21.46</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0.70</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0174</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>009635</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>鹏华安睿两年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>1.35</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>21.46</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0.70</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0094</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>001380</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>鹏华弘盛灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.44</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>23.07</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>0.73</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0032</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>012793</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>长城科创两年定开混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.12</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>76.10</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2.43</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0029</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>009233</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>鹏华安惠混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.28</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>23.35</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>0.79</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0022</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>011072</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>鹏华安悦一年持有期混合C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>26.48</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>0.79</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0005</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>014536</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>诺安高端制造股票C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>88.86</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>3.81</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1584,96 +1516,164 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>13</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.35</v>
+          <t>005821</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>万家新机遇龙头企业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>82.63</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.12</v>
+          <t>001358</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>宝盈祥泰混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>21.77</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.07</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.02</v>
+          <t>007575</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>宝盈祥泰混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>21.77</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688686-奥普特.xlsx
+++ b/数据整理/stocks/A股/科创板/688686-奥普特.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>0.35</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D3" t="n">
-        <v>0.12</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="4">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>2.07</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>3</v>
       </c>
       <c r="D5" t="n">
+        <v>2.07</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -549,6 +566,442 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>506003</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国科创板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.49</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5220</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>013641</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博道成长智航股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>10.27</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.29</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0791</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>506008</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长城科创两年定开混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>78.09</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0774</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>013642</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博道成长智航股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.29</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0557</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001255</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长城改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>74.21</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0401</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011832</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>西部利得中证人工智能主题指数增强A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0351</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011833</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>西部利得中证人工智能主题指数增强C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>562520</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏中证智选1000成长创新策略ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>96.91</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012793</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>长城科创两年定开混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>78.09</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006157</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>财通量化核心优选混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>83.87</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1096,7 +1549,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1340,7 +1793,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1510,7 +1963,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/科创板/688686-奥普特.xlsx
+++ b/数据整理/stocks/A股/科创板/688686-奥普特.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>0.84</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>0.35</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D4" t="n">
-        <v>0.12</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>2.07</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>3</v>
       </c>
       <c r="D6" t="n">
+        <v>2.07</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -566,6 +583,328 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>506008</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>长城科创两年定开混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>77.75</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0804</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>860038</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>光大阳光智造混合B</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0757</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001707</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>诺安高端制造股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.36</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0315</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>860039</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>光大阳光智造混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>860018</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>光大阳光智造混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.46</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012793</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长城科创两年定开混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>77.75</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>014536</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>诺安高端制造股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.36</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1001,7 +1340,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1549,7 +1888,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1793,7 +2132,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1963,7 +2302,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
